--- a/ResultadoEleicoesDistritos/VISEU_TAROUCA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_TAROUCA.xlsx
@@ -597,25 +597,25 @@
         <v>2148</v>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J2" t="n">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -627,34 +627,34 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T2" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>1382</v>
+        <v>1364</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1333</v>
+        <v>1369</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
